--- a/V1/ModuloExportador/tmp/datos.xlsx
+++ b/V1/ModuloExportador/tmp/datos.xlsx
@@ -23,13 +23,13 @@
     <t>edad</t>
   </si>
   <si>
-    <t>pepe</t>
+    <t>pep</t>
   </si>
   <si>
-    <t>perez</t>
+    <t>pere</t>
   </si>
   <si>
-    <t>23</t>
+    <t>29</t>
   </si>
 </sst>
 </file>
